--- a/data.xlsx
+++ b/data.xlsx
@@ -14,21 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
-  <si>
-    <t>Names</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Scores</t>
-  </si>
-  <si>
-    <t>Gender</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>R&amp;D Spend</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Marketing Spend</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Profit</t>
   </si>
   <si>
     <t>Ann</t>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>Prosper</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
 </sst>
 </file>
@@ -422,227 +416,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>5.5</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>5.4</v>
+      </c>
+      <c r="C4">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>5.9</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>5.6</v>
+      </c>
+      <c r="C6">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>5.7</v>
+      </c>
+      <c r="C7">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>5.9</v>
+      </c>
+      <c r="C8">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>5.8</v>
+      </c>
+      <c r="C9">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>6.1</v>
+      </c>
+      <c r="C10">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C11">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
-        <v>5.5</v>
-      </c>
-      <c r="E2">
-        <v>80</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E11">
         <v>6</v>
-      </c>
-      <c r="C3">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>85</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>5.4</v>
-      </c>
-      <c r="E4">
-        <v>70</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>5.9</v>
-      </c>
-      <c r="E5">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>5.6</v>
-      </c>
-      <c r="E6">
-        <v>76</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>5.7</v>
-      </c>
-      <c r="E7">
-        <v>85</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>5.9</v>
-      </c>
-      <c r="E8">
-        <v>74</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>5.8</v>
-      </c>
-      <c r="E9">
-        <v>87</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>17</v>
-      </c>
-      <c r="D10">
-        <v>6.1</v>
-      </c>
-      <c r="E10">
-        <v>75</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>68</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
